--- a/M_Partner_Dealer.xlsx
+++ b/M_Partner_Dealer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="7980" activeTab="4"/>
+    <workbookView windowWidth="15360" windowHeight="7980" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Home page" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Price_List" sheetId="3" r:id="rId3"/>
     <sheet name="Scheme" sheetId="4" r:id="rId4"/>
     <sheet name="E-Warranty" sheetId="5" r:id="rId5"/>
+    <sheet name="Gallery" sheetId="6" r:id="rId6"/>
+    <sheet name="Service_Escalation" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="506">
   <si>
     <t>Project Name: MPartner</t>
   </si>
@@ -1179,17 +1181,524 @@
   <si>
     <t>Sales report will be downloaded</t>
   </si>
+  <si>
+    <t>TC_84</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can go to Gallery</t>
+  </si>
+  <si>
+    <r>
+      <t>1) Click on drawer present on top rigt of the screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2) Click on Gallery</t>
+    </r>
+  </si>
+  <si>
+    <t>Will be redirected to Gallery and TVC product will be displayed</t>
+  </si>
+  <si>
+    <t>TC_85</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Super Inverter</t>
+  </si>
+  <si>
+    <t>Click on super inverter</t>
+  </si>
+  <si>
+    <t>video of super inverter will play</t>
+  </si>
+  <si>
+    <t>TC_86</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of luminous super inverter</t>
+  </si>
+  <si>
+    <r>
+      <t>1) Click on share option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2) Click on save to drive</t>
+    </r>
+  </si>
+  <si>
+    <t>Download link of video will be shared</t>
+  </si>
+  <si>
+    <t>TC_87</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Zelio WiFi</t>
+  </si>
+  <si>
+    <t>Click on Zelio WiFi</t>
+  </si>
+  <si>
+    <t>video of Zelio WiFi will play</t>
+  </si>
+  <si>
+    <t>TC_88</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of luminous Zelio WiFi</t>
+  </si>
+  <si>
+    <t>TC_89</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Regalia</t>
+  </si>
+  <si>
+    <t>Click on Regalia</t>
+  </si>
+  <si>
+    <t>video of Regalia will play</t>
+  </si>
+  <si>
+    <t>TC_90</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of luminous Regalia</t>
+  </si>
+  <si>
+    <t>TC_91</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Gel Batteries</t>
+  </si>
+  <si>
+    <t>Click on Gel Batteries</t>
+  </si>
+  <si>
+    <t>video of Gel Batteries will play</t>
+  </si>
+  <si>
+    <t>TC_92</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of luminous Gel Batteries</t>
+  </si>
+  <si>
+    <t>TC_93</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of We are Digital</t>
+  </si>
+  <si>
+    <t>Click on We are Digital</t>
+  </si>
+  <si>
+    <t>video of We are Digital will play</t>
+  </si>
+  <si>
+    <t>TC_94</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of luminous We are Digital</t>
+  </si>
+  <si>
+    <t>TC_95</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Engagement</t>
+  </si>
+  <si>
+    <t>Click on Engagement</t>
+  </si>
+  <si>
+    <t>video of Engagement will play</t>
+  </si>
+  <si>
+    <t>TC_96</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of luminous Engagement</t>
+  </si>
+  <si>
+    <t>TC_97</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Baby TVC</t>
+  </si>
+  <si>
+    <t>Click on Baby TVC</t>
+  </si>
+  <si>
+    <t>video of Baby TVC will play</t>
+  </si>
+  <si>
+    <t>TC_98</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of luminous Baby TVC</t>
+  </si>
+  <si>
+    <t>TC_99</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Ab Party Or Padhai Bhi</t>
+  </si>
+  <si>
+    <t>Click on Ab Party Or Padhai Bhi</t>
+  </si>
+  <si>
+    <t>video of Ab Party Or Padhai Bhi will play</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of luminous Ab Party Or Padhai Bhi</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can open Product videos</t>
+  </si>
+  <si>
+    <t>Click on Product video on top of the screen</t>
+  </si>
+  <si>
+    <t>Product video page will open</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Regalia unboxing and installation</t>
+  </si>
+  <si>
+    <t>Click on Regalia unboxing and installationi</t>
+  </si>
+  <si>
+    <t>video of Regalia unboxing and installation will play</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Regalia unboxing and installation</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of which solar is best for your customer</t>
+  </si>
+  <si>
+    <t>Click on which solar is best for your customer</t>
+  </si>
+  <si>
+    <t>video of which solar is best for your customer will play</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of which solar is best for your customer</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of High capacity Inverter</t>
+  </si>
+  <si>
+    <t>Click on High capacity Inverter</t>
+  </si>
+  <si>
+    <t>video of High capacity Inverter will play</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of High capacity Inverter</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Regalia Inverter</t>
+  </si>
+  <si>
+    <t>Click on Regalia Inverter</t>
+  </si>
+  <si>
+    <t>video of Regalia Inverter will play</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Regalia Inverter</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Zelio Inverter</t>
+  </si>
+  <si>
+    <t>Click on Zelio Inverter</t>
+  </si>
+  <si>
+    <t>video of Zelio Inverter will play</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Zelio Inverter</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Plus series Inverter</t>
+  </si>
+  <si>
+    <t>Click on Plus series Inverter</t>
+  </si>
+  <si>
+    <t>video of Plus series Inverter will play</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Plus series Inverter</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of HKVA Inverter</t>
+  </si>
+  <si>
+    <t>Click on HKVA Inverter</t>
+  </si>
+  <si>
+    <t>video of HKVA Inverter will play</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of HKVA Inverter</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can open Testimonials</t>
+  </si>
+  <si>
+    <t>Click on Testimonials on top of the screen</t>
+  </si>
+  <si>
+    <t>Testimonials page will open</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Luminious Dil Se</t>
+  </si>
+  <si>
+    <t>Click on Luminious Dil Se</t>
+  </si>
+  <si>
+    <t>video of Luminious Dil Se will play</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Luminious Dil Se</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Zelio wifi</t>
+  </si>
+  <si>
+    <t>Click on Zelio wifi</t>
+  </si>
+  <si>
+    <t>video of Zelio wifi will play</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Zelio wifi</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of MD Interview</t>
+  </si>
+  <si>
+    <t>Click on MD Interview</t>
+  </si>
+  <si>
+    <t>video of MD Interview will play</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of MD Interview</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Marketing Sr. VP Interview</t>
+  </si>
+  <si>
+    <t>Click on Marketing Sr. VP Interview</t>
+  </si>
+  <si>
+    <t>video of Marketing Sr. VP Interview will play</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Marketing Sr. VP Interview</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Brand India Trust</t>
+  </si>
+  <si>
+    <t>Click on Brand India Trust</t>
+  </si>
+  <si>
+    <t>video of Brand India Trust will play</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Brand India Trust</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can play video of Roshini Dil Ki</t>
+  </si>
+  <si>
+    <t>Click on Roshini Dil Ki</t>
+  </si>
+  <si>
+    <t>video of Roshini Dil Ki will play</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can sahre video of Roshini Dil Ki</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can go to Service escalation</t>
+  </si>
+  <si>
+    <r>
+      <t>1) Click on drawer present on top rigt of the screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2) Click on Service escalation</t>
+    </r>
+  </si>
+  <si>
+    <t>Will be redirected to Service escalation page</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can see dealer list state wise</t>
+  </si>
+  <si>
+    <t>Select state</t>
+  </si>
+  <si>
+    <t>List of dealer of that state will display</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
   <fonts count="22">
@@ -1223,22 +1732,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,7 +1784,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,37 +1828,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1327,9 +1836,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,8 +1851,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,9 +1861,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1379,25 +1888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,13 +1912,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1942,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,7 +1996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,13 +2020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,67 +2038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,24 +2056,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1584,6 +2093,58 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1636,17 +2197,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1676,181 +2231,211 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,9 +2449,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2210,506 +2792,506 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>43871</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:11">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="45" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="45" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="75" spans="1:11">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="45" spans="1:11">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" ht="75" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" ht="75" spans="1:11">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" ht="60" spans="1:11">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" ht="45" spans="1:11">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" ht="60" spans="1:11">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" ht="45" spans="1:11">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" ht="45" spans="1:11">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" ht="45" spans="1:11">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" ht="45" spans="1:11">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="7" t="s">
+      <c r="E19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" ht="45" spans="1:11">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7" t="s">
+      <c r="E20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2752,1027 +3334,1027 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>43871</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="60" spans="1:11">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="75" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="105" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="75" spans="1:11">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="60" spans="1:11">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" ht="60" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" ht="75" spans="1:11">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" ht="105" spans="1:11">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" ht="75" spans="1:11">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" ht="90" spans="1:11">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" ht="75" spans="1:11">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" ht="120" spans="1:11">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" ht="90" spans="1:11">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" ht="75" spans="1:11">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="E19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" ht="75" spans="1:11">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="E20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" ht="105" spans="1:11">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" ht="75" spans="1:11">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" ht="75" spans="1:11">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="E23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" ht="105" spans="1:11">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" ht="75" spans="1:11">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" ht="75" spans="1:11">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="E26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" ht="105" spans="1:11">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" ht="90" spans="1:11">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" ht="75" spans="1:11">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
+      <c r="E29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" ht="105" spans="1:11">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" ht="90" spans="1:11">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" ht="75" spans="1:11">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
+      <c r="E32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" ht="105" spans="1:11">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" ht="75" spans="1:11">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7" t="s">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" ht="90" spans="1:11">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" ht="90" spans="1:11">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" ht="75" spans="1:11">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" ht="75" spans="1:11">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7" t="s">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" ht="75" spans="1:11">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
+      <c r="E39" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" ht="105" spans="1:11">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" ht="90" spans="1:11">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3815,440 +4397,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>43871</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="60" spans="1:11">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="75" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="75" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="75" spans="1:11">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="75" spans="1:11">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" ht="75" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" ht="60" spans="1:11">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" ht="60" spans="1:11">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" ht="60" spans="1:11">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="E14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" ht="60" spans="1:11">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" ht="75" spans="1:11">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" ht="75" spans="1:11">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" ht="60" spans="1:11">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4270,7 +4852,7 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
@@ -4285,340 +4867,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>43871</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="75" spans="1:11">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="75" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="75" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="75" spans="1:11">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="60" spans="1:11">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" ht="75" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" ht="60" spans="1:11">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" ht="75" spans="1:11">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" ht="60" spans="1:11">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="E14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4640,8 +5222,8 @@
   <sheetPr/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4657,373 +5239,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>43871</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="75" spans="1:11">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="240" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="255" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="270" spans="1:11">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="285" spans="1:11">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" ht="300" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" ht="330" spans="1:11">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" ht="270" spans="1:11">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="20" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="14" ht="75" spans="1:11">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" ht="75" spans="1:11">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5041,4 +5623,1472 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="18.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43871</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="60" spans="1:11">
+      <c r="A6" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" ht="60" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" ht="60" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" ht="45" spans="1:11">
+      <c r="A9" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" ht="60" spans="1:11">
+      <c r="A10" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" ht="45" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" ht="60" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" ht="60" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" ht="60" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" ht="60" spans="1:11">
+      <c r="A15" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" ht="60" spans="1:11">
+      <c r="A16" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" ht="60" spans="1:11">
+      <c r="A17" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" ht="60" spans="1:11">
+      <c r="A18" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" ht="45" spans="1:11">
+      <c r="A19" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" ht="60" spans="1:11">
+      <c r="A20" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" ht="60" spans="1:11">
+      <c r="A21" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" ht="75" spans="1:11">
+      <c r="A22" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" ht="45" spans="1:11">
+      <c r="A23" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" ht="75" spans="1:11">
+      <c r="A24" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" ht="75" spans="1:11">
+      <c r="A25" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" ht="75" spans="1:11">
+      <c r="A26" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" ht="75" spans="1:11">
+      <c r="A27" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" ht="75" spans="1:11">
+      <c r="A28" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" ht="60" spans="1:11">
+      <c r="A29" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" ht="60" spans="1:11">
+      <c r="A30" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" ht="60" spans="1:11">
+      <c r="A31" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" ht="60" spans="1:11">
+      <c r="A32" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" ht="60" spans="1:11">
+      <c r="A33" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" ht="60" spans="1:11">
+      <c r="A34" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" ht="60" spans="1:11">
+      <c r="A35" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" ht="60" spans="1:11">
+      <c r="A36" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" ht="60" spans="1:11">
+      <c r="A37" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" ht="45" spans="1:11">
+      <c r="A38" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" ht="60" spans="1:11">
+      <c r="A39" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" ht="60" spans="1:11">
+      <c r="A40" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" ht="60" spans="1:11">
+      <c r="A41" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" ht="60" spans="1:11">
+      <c r="A42" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" ht="60" spans="1:11">
+      <c r="A43" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" ht="60" spans="1:11">
+      <c r="A44" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" ht="60" spans="1:11">
+      <c r="A45" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" ht="60" spans="1:11">
+      <c r="A46" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" ht="60" spans="1:11">
+      <c r="A47" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" ht="60" spans="1:11">
+      <c r="A48" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" ht="60" spans="1:11">
+      <c r="A49" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" ht="60" spans="1:11">
+      <c r="A50" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="18.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43871</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="75" spans="1:11">
+      <c r="A6" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" ht="75" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>